--- a/biology/Zoologie/Asopinae/Asopinae.xlsx
+++ b/biology/Zoologie/Asopinae/Asopinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Asopinae sont une sous-famille d’insectes hémiptères hétéroptères (punaises) de la famille des Pentatomidae. Elle est présente dans le monde entier. On lui connaît plus de 300 espèces réparties dans 63 genres[1].
-Ce sont des punaises prédatrices qui sont utiles comme agents de lutte biologique contre les ravageurs, même contre d'autres espèces de pentatomidés, qui sont toutes herbivores[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Asopinae sont une sous-famille d’insectes hémiptères hétéroptères (punaises) de la famille des Pentatomidae. Elle est présente dans le monde entier. On lui connaît plus de 300 espèces réparties dans 63 genres.
+Ce sont des punaises prédatrices qui sont utiles comme agents de lutte biologique contre les ravageurs, même contre d'autres espèces de pentatomidés, qui sont toutes herbivores.
 Les Asopinae se distinguent par leur large clypéus.
 </t>
         </is>
@@ -513,12 +525,84 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Asopinae a été décrite pour la première fois en 1843, sous le nom de Asopides, par les entomologistes français Charles Jean-Baptiste Amyot et Jean Guillaume Audinet-Serville.
-Publication originale
-Publication originale : Charles Jean-Baptiste Amyot et Jean Guillaume Audinet-Serville, Histoire naturelle des insectes : Hémiptères, Librairie encyclopédique de Roret, 1843, 657 p. (Référence Biodiversity Heritage Library : 8577057 ), p. 7.
-Genres rencontrés en Europe
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Asopinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asopinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Publication originale : Charles Jean-Baptiste Amyot et Jean Guillaume Audinet-Serville, Histoire naturelle des insectes : Hémiptères, Librairie encyclopédique de Roret, 1843, 657 p. (Référence Biodiversity Heritage Library : 8577057 ), p. 7.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Asopinae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asopinae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Europe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Andrallus Bergroth, 1905
 Arma Hahn, 1832
 Jalla Hahn, 1832
@@ -529,66 +613,102 @@
 Rhacognathus Fieber, 1860
 Troilus Stål, 1867
 Zicrona Amyot &amp; Serville, 1843
-Genres rencontrés dans le monde
-Afrius Stål, 1870[3]
-Alcaeorrhynchus Bergoth, 1891[4]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Asopinae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asopinae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genres rencontrés dans le monde</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Afrius Stål, 1870
+Alcaeorrhynchus Bergoth, 1891
 Amyotea Ellenrieder, 1862
 Anasida Karsch, 1892
-Andrallus Bergroth, 1905[5]
+Andrallus Bergroth, 1905
 Apateticus Dallas, 1851
 Apoecilus Stål, 1870
 Arma Hahn, 1832
 Australojalla Thomas, 1994
-Blachia Walker, 1867[6]
+Blachia Walker, 1867
 Brontocoris Thomas, 1992
 Bulbostethus Ruckes, 1960
 Canthecona Amyot &amp; Serville, 1843
 Cantheconidea Schouteden, 1907
-Cazira Amyot &amp; Serville, 1843[7]
+Cazira Amyot &amp; Serville, 1843
 Cecyrina Walker, 1867
 Cermatulus Dallas, 1851
 Colpothyreus Stål, 1867
 Comperocoris Stål, 1867
 Conquistator Gapon, 2009
-Coryzorhaphis Spinola, 1837[8]
+Coryzorhaphis Spinola, 1837
 Damarius Schouteden, 1907
-Dinorhynchus Jakovlev, 1876[9]
-Discocera Laporte, 1833[10]
-Dorycoris Mayr, 1864[11]
+Dinorhynchus Jakovlev, 1876
+Discocera Laporte, 1833
+Dorycoris Mayr, 1864
 Ealda Walker, 1867
 Eocanthecona Bergroth, 1915
 Euthyrhynchus Dallas, 1851
 Friarius Schouteden, 1907
-Glypsus Dallas, 1851[12]
-Hemallia Bergroth, 1908[13]
-Heteroscelis Latreille, 1829[14]
+Glypsus Dallas, 1851
+Hemallia Bergroth, 1908
+Heteroscelis Latreille, 1829
 Hoploxys Dallas, 1851
 Jalla Hahn, 1832
 Jalloides Schouteden, 1907
-Leptolobus Signoret, 1855[15]
+Leptolobus Signoret, 1855
 Macrorhaphis Dallas, 1851
-Marmessulus Bergroth, 1891[16]
-Martinina Schouteden, 1907[17]
+Marmessulus Bergroth, 1891
+Martinina Schouteden, 1907
 Mecosoma Dallas, 1851
-Montrouzieriellus Kirkaldy, 1908[18]
-Oechalia Stål, 1862[19]
-Oplomus Spinola, 1840[20]
+Montrouzieriellus Kirkaldy, 1908
+Oechalia Stål, 1862
+Oplomus Spinola, 1840
 Ornithosoma Kormilev, 1957
-Parajalla Distant, 1911[21]
+Parajalla Distant, 1911
 Parealda Schouteden, 1907
-Perillus Stål, 1862[22]
+Perillus Stål, 1862
 Picromerus Amyot &amp; Serville, 1843
 Pinthaeus Stål, 1867
 Planopsis Schouteden, 1907
 Platynopiellus Thomas, 1994
 Platynopus Amyot &amp; Serville, 1843
-Podisus Herrich-Schäffer, 1851[23]
+Podisus Herrich-Schäffer, 1851
 Ponapea
 Pseudanasida Schouteden, 1907
 Rhacognathus Fieber, 1860
 Spockia Roca-Cusachs &amp; Jung, 2019
 Stilbotes Stål, 1871
-Stiretrus Laporte, 1833[24]
+Stiretrus Laporte, 1833
 Supputius Distant, 1889
 Troilus Stål, 1867
 Tylospilus Stål, 1870
